--- a/data/hotels_by_city/Dallas/Dallas_shard_355.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_355.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="500">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kahuna0572</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Stayed here while my mom had knee surgery and was pleased with the accommodations. It is an older HIEX but don't let that bother you. I would definitely stay here again when visiting the DFW area! Good restraints nearby as well!More</t>
   </si>
   <si>
+    <t>Lovestotravelwell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r495893808-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Extremely disappointed in this HIE.  We are a gold elite member and couldn't use our points for this hotel so we decided to stay anyway because we were making an unexpected trip and needed to be near the hospital.  Door to get in hotel in quite hard to get in especially when it is pouring down rain.  Went in the room and there was a trash bag over the smoke alarm.  We were not comfortable in the room.  Rooms are extremely small for a suite. Carpet looks awful.  Bed was horrible.  Not only was it uncomfortable it made a horrible noise when you moved any little bit.  Not a good experience at all.  Very disappointed More</t>
   </si>
   <si>
+    <t>Gloria L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r495860438-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>We went for a burial at Restland Cemetery and the location is perfect. The staff was excellent. The rooms were in very nice conditions and the breakfast was also very nice.It helped me that we had a very nice place to stay.More</t>
   </si>
   <si>
+    <t>CJMTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r490787736-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>Upon entering the hotel the lobby and breakfast area were really clean.  But upon entering our room...different story.  I am a platinum member and I needed to stay here due to its location.  But boy was I disappointed.  The room smelled musty and reeked of smoke.  It was too late to try and find another room.  The towels in the bathroom smelled of smoke.  And this is supposedly a non-smoking hotel!  The faucet also leaked.  Not my favorite hotel.  Also the person (or persons) above us sounded like they were moving furniture.  Thank goodness for ear plugs!More</t>
   </si>
   <si>
+    <t>Iwuohaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r485905152-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>I couldn't stay at this place. The hotel as a whole is dated and dirty. When I got to my room, I saw a dying roach and some stains on the bathroom floor. I went back down to the lobby to check out and noticed 2 pill bugs on the floor. I reported this and the attendant took a push broom and swept the bugs up. She didn't seem to surprised about the reported bugs. I told her that could not stay at the hotel for those reasons, and she didn't even offer a refund until I asked. She also only refunded one of the two nights, even though I never stayed there. On my way out, I came across a centipede, not too far from the breakfast area. Disgusting. This is an honest post and I have videos to prove it!More</t>
   </si>
   <si>
+    <t>paulie1957</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r485024954-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>The facility was great but as always the wi-fi was poor. The room was very clean and spacious. The FREE breakfast,variety was good. The front desk attendant Jasmine tried to assist with wi-fi issue. She tried at least 3 times.</t>
   </si>
   <si>
+    <t>Joann C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r477143084-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>pestpilot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r476597437-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>MeLynda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r464735664-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t xml:space="preserve">Hotel is clean, staff is friendly. It was a typical Holiday Inn Express visit. We stayed 3 nights and everything went well. We had a room with the hugest jacuzzi tub I've ever seen in a room! Breakfast was just ok. The biscuits were cold, but we asked if they could heat them in the microwave and they did so no big deal. There's also a toaster if you want to warm them. </t>
   </si>
   <si>
+    <t>Dana W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r464731450-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>This is a little older hotel but appears to have been refurbished not too many years ago.  The front desk staff was very friendly during check in and even have fresh baked cookies Monday through Thursday.  We had a problem with our door not locking unless we jimmied with it.  The staff was not able to correct the problem during the weekend, so we had to be aware each time entering and leaving their room.  Upon check out the front desk gave us 2000 extra points on our rewards program because of the problem. These extra points were unprompted.  The parking is somewhat small in front of the hotel because of an adjacent restaurant, however there is plenty of parking in the back.  We would stay there again if in the area. More</t>
   </si>
   <si>
+    <t>Steven2212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r451786961-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Tony J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r420819310-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -396,6 +432,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>francesamay2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r409555924-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>s d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r391743222-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>steve555Austin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r387052718-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t>Booked a king suite, problems with room, construction going on with ice maker on the same floor.  Noise was terrible, I complained to the sales manager and had to demand a new room. Construction was occurring after six in the evening.  New room was air conditioning was loud mattress was bad.  I only book this hotel due to its location to Restland Funeral Home.More</t>
   </si>
   <si>
+    <t>Can'tW8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r379377225-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -480,6 +528,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Polly C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r375440593-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t>I chose this hotel due to the brand and location.  The lobby has a very pleasant appearance with upgrades.  My room was is desperate need of an upgrade.  The ac unit was falling apart, cigarette burn stains on the furniture, mold in the bathroom, and particles on the carpet.  1 towel provided??? The room did not feel clean.More</t>
   </si>
   <si>
+    <t>HouseOfMouseVisitor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r372071714-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -522,6 +576,9 @@
     <t>The rooms were exceptionally quiet.  They were clean &amp; tidy.  The two negatives - the shower curtain did not prevent water from pooling on the bathroom floor during showering and parking is limited.  The good far outweigh the negative and it was a restful nights sleep.</t>
   </si>
   <si>
+    <t>Robert T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r366493800-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -540,6 +597,9 @@
     <t>The hotel manager Mike lyse llidia is awsome he picked me up in the hotel shuttle at another hotel I paid with points he took care of me along with Sheila I had an issue with my phone in the room he came up personally and fixed the rooms are nice great dining in the same parking lot staff seem happy to work here I have stayed at 4 diamond resorts all around the word and even in places where you have a personal Butler i.e hotel intercontenintal Managua Nicaragua and other countries and didn't have such a pleasurable stay as I do today thanks a lot Mike and company!!!!☆☆☆☆☆More</t>
   </si>
   <si>
+    <t>John T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r360320388-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -561,6 +621,9 @@
     <t>This quaint little hotel had everything from comfortable clean rooms, to a complimentary breakfast to a small but nice swimming pool and a hot tub, The customer service was excellent and everything was done with a genuine interest into my enquires and I was made to feel special and wanted at the hotel. The breakfast was very tasty and had something for everyone. There was free coffee throughout the day and nothing was a hassle for the staff. I can't recommend this hotel enough. It has restaurants near by with good bars too. The rooms were large with a fridge and microwave and coffee making facilities. The Beds were very comfortable and the air-conditioning was just right. Thank you for a wonderful stay and I hope to get back to you soon.More</t>
   </si>
   <si>
+    <t>Orlando M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r289830889-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -615,6 +678,9 @@
     <t>This is a decent hotel, but it lacked in customer service. The place is clean, however watch your steps as you walk throughout the hallways on the second floor. Carpet needs to be replaced and you could easily trip. Otherwise very comfy.More</t>
   </si>
   <si>
+    <t>LTtracy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r254274288-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -639,6 +705,9 @@
     <t>Check in/out was great. Breakfast is good and breakfast area was always clean. They even give you drink and apps. night too. Rooms were comfortable with soft beds and a variety of pillows for your comfort. WIFI worked just fine. Within walking distance to Olive garden, red lobster,outback, and cheddars.More</t>
   </si>
   <si>
+    <t>Bob L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r237606040-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -666,6 +735,9 @@
     <t>When I checked in to the hotel they had put me in a room on the first floor right near all the traffic areas. It was around 5pm and I could see they had originally wrote me down for a 3rd floor room and crossed it out. I told them I wanted a different room that 101 was just too close to all of the noise. The response I received from the front desk guy was "were all sold out". To which I said "I am sure everyone hasn't checked in yet." He just gave me a blank stare and waited for the other clerk at the desk who was on the phone to help me. I asked for another room to which I received the same response. And I said the same thing then they reluctantly moved me to another room. This by far was substandard service anyone knows this fact and it should have been offered. I consider this group of people plain lazy. Hotel Breakfast was nice and the rooms were worn down and needed some additional updates. Yes as other people have said the rooms were musty and smelled bad. It was just a strange stay and one I will not have again. Also, I had to stop at the desk to pickup my bill it wasn't placed underneath the door. Overall I was dissatisfied. Plus the one other thing that really bugged me is that...When I checked in to the hotel they had put me in a room on the first floor right near all the traffic areas. It was around 5pm and I could see they had originally wrote me down for a 3rd floor room and crossed it out. I told them I wanted a different room that 101 was just too close to all of the noise. The response I received from the front desk guy was "were all sold out". To which I said "I am sure everyone hasn't checked in yet." He just gave me a blank stare and waited for the other clerk at the desk who was on the phone to help me. I asked for another room to which I received the same response. And I said the same thing then they reluctantly moved me to another room. This by far was substandard service anyone knows this fact and it should have been offered. I consider this group of people plain lazy. Hotel Breakfast was nice and the rooms were worn down and needed some additional updates. Yes as other people have said the rooms were musty and smelled bad. It was just a strange stay and one I will not have again. Also, I had to stop at the desk to pickup my bill it wasn't placed underneath the door. Overall I was dissatisfied. Plus the one other thing that really bugged me is that they handed out a card. It said if you rated them excellent in the survey from Holiday Inn's you could be entered into a drawing for 5,000 Priority Club Points that's a shame that you have to bribe people to receive good ratings.More</t>
   </si>
   <si>
+    <t>Lance H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r237569561-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -687,6 +759,9 @@
     <t>We were at this hotel less than 12 hours. It was fine for what we needed. It seemed a little tired and in need of TLC. The back of the hotel was a bit dirty. The sidewalks had damaged tile and bottle caps. Our bed and pillows were comfortable and clean. It is fine for an overnight stay.More</t>
   </si>
   <si>
+    <t>Christine T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r218065642-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -714,6 +789,9 @@
     <t>I made a phone call after booking online to confirm check in information; they were rude from our first encounter onward.  We got to our room, the A/C was not working properly; during our entire stay, the room was uncomfortably warm and VERY stuffy.  We made several phone calls to the front desk to let them know about the problem, but NOTHING was done to address the issue.  We were told they were sold out for the weekend and there was nothing that could be done.  An apology was not even offered for the inconvenience.  At the very least, I would have expected someone to come out and take a look at our room to make sure nothing could be done.  I didn't really go into the hotel expecting a fancy weekend stay, but for almost $100/night, the level of services received was unacceptable.  Definitely will not be returning to stay at Holiday Inn Express.More</t>
   </si>
   <si>
+    <t>Mariekitt24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r209211541-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -741,6 +819,9 @@
     <t>This was probably the best experience we've ever had at a hotel.  It's nothing fancy or anything, but everyone just does their job really well.  This hotel has the friendliest most helpful staff, check in and check out was a breeze.  The room was perfectly clean including the bathroom. It was spacious enough, had two sinks, a microwave and fridge, and plenty of TV channels. The breakfast was good, something for everyone. The pool/ hot tub area was small but very clean and peaceful. This hotel exceeded our expectations and we would definitely stay here again.  I can't think of a single negative thing to say about our stay there.More</t>
   </si>
   <si>
+    <t>texasshark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r207104352-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -777,6 +858,9 @@
     <t>May 14, 2014</t>
   </si>
   <si>
+    <t>STARR08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r204387547-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -801,6 +885,9 @@
     <t>We really enjoyed our stay here. We switched from a Comfort Suites just up the road and this was a much better choice. The hot tub needed a little cleaning and we noticed some bad painting in the rooms but all was exceptional really. They are right beside a Cheddars Outback Steakhouse Red Lobster and Olive Garden!  So that's Def a plus. We will stay here again for sure..oh yeah and Maggie was the sweetest at the front desk. More</t>
   </si>
   <si>
+    <t>John D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r197086665-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -828,6 +915,9 @@
     <t>Great hotel to stay in. People are friendly, staff is friendly. Check in was quick and very helpful hotel clerk. Beakfast was good, especially the cinnamon rolls. Very convenient to get on and off the interstate. Beds were nice and comfortable. Rooms very clean. Enjoyed my stay, would definitely recommend to anyone staying in this area.More</t>
   </si>
   <si>
+    <t>SaintVitas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r196872592-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -846,6 +936,9 @@
     <t>This was a good location for me next to across 635 from T.I. and a walk to 5 adjacent restaurants literally next door.  Rooms were large, comfortable, and quiet, and the included breakfasts were hot and delicious.  Staff upgraded me without my asking, so was quite surprised with my suite at the price of a standard.More</t>
   </si>
   <si>
+    <t>JohnRam47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r195147383-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -873,6 +966,9 @@
     <t>I stayed at this Holiday Inn Express for 5 nights.  The hotel upgraded my room at no extra charge, had a great breakfast, Happy Hour for their guests Monday, Tuesday &amp; Wednesday evenings.  Restaurants right outside the door and best but not least, a SHUTTLE!  They were wonderful, taking us where we needed to go and picked us up as well, FREE of charge (within 5 mile radius).More</t>
   </si>
   <si>
+    <t>crestliner1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r194956288-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -897,6 +993,9 @@
     <t>the hotel management was very helpful, got us a shuttle to and from our work location and also to the airport. Happy hour was a plus. Rooms where very clean, looked like the hotel had been rehabbed. Lots of eating places to dine.More</t>
   </si>
   <si>
+    <t>LaBrittini</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r193924374-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1020,9 @@
     <t>Service was really great! I stayed here for a training 3 days a week for 4 weeks and they made me feel very special! Special little gifts left in my room each week and since I had to be alone on Valentine's they put some Valentine cookies in my room!! Haywood was exceptionally friendly and nice. Plus he learned my name and used it everytime he saw me! and when i wanted to switch rooms he was very nice to let me do so. Maggie was great also...she was very friendly and made me feel like I was apart of them!! Thanks!!!More</t>
   </si>
   <si>
+    <t>James W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r193906051-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1038,9 @@
     <t>I have stayed at this location on multiple occasions and always had great service. Maggie at the front desk is always heplfully and tries to accomodate anything you could ask for. Will always stay at this location when in DallasMore</t>
   </si>
   <si>
+    <t>Amy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r193189610-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1065,9 @@
     <t>Maggie at the front desk was so warm and friendly from the time we walked in until we left!  She went above and beyond getting my family an early check-in and later helping me when I needed some assistance.  The other staff was also friendly and very accommodating.  The rooms were clean and comfortable.  We were impressed there were some protein options provided for breakfast (not often found in other complimentary continental breakfasts).More</t>
   </si>
   <si>
+    <t>John A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r192615963-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1095,9 @@
     <t>We felt welcomed from the minute we walked in the door. The front desk person, think his name was Haywood, was so pleasant &amp; eagar to find me the best rate possible as we were in town for medical reasons; was expecting to pay alot more! The room we stayed in was beautiful &amp; perfect for our needs. We will be returning to Dallas soon &amp; will for sure stay there. The breakfast buffet, which was included in our rate, was truly awesome. All the staff we encountered were warm &amp; friendly.More</t>
   </si>
   <si>
+    <t>Mark_AO4527YJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r192597655-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1113,9 @@
     <t>This hotel is by far the best HI Express I've stayed in! The staff was warm, friendly &amp; truly seemed concerned with making my stay comfortable &amp; enjoyable. B'Fast was very impressive &amp; enjoyable. My room was clean &amp; comfortable &amp; a great value!! Will most definitely use this hotel again whenever I am in Dallas!!!More</t>
   </si>
   <si>
+    <t>MUJTABA1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r191274127-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1140,9 @@
     <t>I have just choose this hotel in random because my house heating broke.The staff took care of me very well, well behaved.Room is very nice and clean, very comfortable bed, all relevant tv channels are there. Breakfast is adequate and fresh. The most I like is the quality of coffee, normally I have stayed at other hotels, their coffee never as good as this particular Holiday Inn. General Manger is so friendly I could not believe it.I will recommend all my friends and family members whenever they a need hotel just choose this hotel.Thank you very much I am happy customer.More</t>
   </si>
   <si>
+    <t>stefhim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r181837668-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1170,9 @@
     <t>We stayed the last 2 nights of State Fair 2013. Our rooms toilet would not flush properly - they plunged, by morning, not flushing again. Reported again and second night, again no flush.Microwave did not work either.Would not stay at this property again.More</t>
   </si>
   <si>
+    <t>Cindie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r181012177-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1197,9 @@
     <t>We came to DFW area to celebrate my 7 yr old daughters b-day.  My husband booked the room for us and apparently booked the wrong date.  Tiffany, Gerry and Tori went out of there way to help us out.  All surrounding hotel's were booked due to an OU game in town.  The staff let the kids swim while we tried to figure out what to do next.  Without fail they ended up being able to put us in a room!!  Super nice and very very helpful :)More</t>
   </si>
   <si>
+    <t>Rissa V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r178981765-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1227,9 @@
     <t>We stayed here for a week while our RV was in service. It had a very nice little pool and hot tub, an adorable lobby, friendly staff, and clean rooms. They have refrigerators and microwaves in the rooms, which was very helpful to us with our prolonged stay. Bathroom amenities were rather nice as well, being Bath &amp; Body Works White Citrus. Yummy.The only negative was the pillows, which felt like bags of cotton balls in pillowcases. Bring your own head pillow if you stay here, or hope they replace them soon.More</t>
   </si>
   <si>
+    <t>tuitai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r178379532-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1254,9 @@
     <t>We stayed there for two nights.  Great location and parking is free.  The room size is decent and clean.  One bed has a big burned hole and they didn't bother to replace it.  The front desk is helpful and breakfast was ok.More</t>
   </si>
   <si>
+    <t>scott z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r177520060-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1281,9 @@
     <t>Just stopped in without reservations and was pleasantly greeted and immediately felt welcome.  Nice clean comfortable room appears to be newly remodeled very nicely.   Very good nite's sleep, Breakfast in the morning was very well attended but well stocked and plenty to eat.  Friendly staff, clean new room, great stay!More</t>
   </si>
   <si>
+    <t>Birdinhandtwo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r171637339-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1305,9 @@
     <t>We went to Dallas for our daughter to undergo testing at a nearby center for 2 days.When the clerk on duty asked &amp; learned what had brought us to Dallas, he lowered our rate by $31! He and his colleague were extremely friendly and helpful with directions and suggestions. The room was spacious, cool, and clean; it was beautifully decorated and comfortable, and the parking was close, safe, and free. The breakfast included eggs and bacon and an omelette the following day. Several restaurants are within a block. In spite of its convenient location ( at Greenville and  I-635), the hotel is far enough off the freeway to prevent traffic noise. I would stay there again and could not ask for friendlier or more courteous, helpful staff! My only complaint is that there could be better lighting in the rooms.More</t>
   </si>
   <si>
+    <t>steph_ksufootball</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r170057115-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1200,6 +1335,9 @@
     <t>We chose this hotel because it was close to our daughter's apartment and the price was decent. When we got in bed, our younger daughter pulled an M&amp; M's wrapper out from under the sheets. The maid didn't bother to change the sheets. Never again.More</t>
   </si>
   <si>
+    <t>Qbeing</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r163484055-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1224,6 +1362,9 @@
     <t>I chose this place due to its location close to our appointment.  Normally I avoid Holiday Inn since in the late 90s when I traveled a lot, it seemed like the prices were always high and the buildings were not new and clean.  That no longer appears to be the case.Here the price was reasonable.  Facility was clean.  Check in was very easy and cheerful.  The room was fine, with a nice TV, a fridge, a micro, and an extra sink by the coffee pot and appliances.  Linens were fresh and clean.The breakfast was really great, and is one of the main criteria I use when choosing or returning to a hotel.  It was a complete hot and cold breakfast with eggs, bacon, biscuits and gravy, pancakes, plus the usual bread, fruit, and cereal items.  This really saves my family a lot of time and money, if we can eat right there when we wake up.There looked to be several restaurants in the immediate vicinity, but as we arrived late, we were unable to check them out.More</t>
   </si>
   <si>
+    <t>mypcis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r159847154-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1392,9 @@
     <t>My husband and I stayed in this room for one night. I booked a suite with a king size bed and a hot tube. The bed was very comfortable... we slept like babies! It had a living area with sleeper sofa, fridge, microwave, and coffee maker. A/c worked great... that's a must for me. A bit pricey but it was just one night for a nice getaway. The jetted-tub is inside the bathroom and is intended for one person, although two people can also fit into it. I would recommend it!More</t>
   </si>
   <si>
+    <t>milburn289</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r159490584-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1416,9 @@
     <t>Very good location near 75 and 635 in Dallas.  Nice and clean, suite type room, flat screen tv in both rooms,  fridge.  Very nice desk staff, very helpful.  Had a teeny bottle of wine in the priority club bag given at check in.  Quiet place, very decent.  Breakfast is standard HIX.  Try and eat just one of the cinnamon rolls.  I would definitely stay again.More</t>
   </si>
   <si>
+    <t>MrsKellyPete</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r128441782-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1437,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Bmayes77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r127898727-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1314,6 +1464,9 @@
     <t>The hotel is very run down and it's like they have air fresheners running through the AC vents... Makes us think that they're trying to cover up something??  The smell is too overwhelming!!  It's as though they're updating because there are beautiful furnitures &amp; fixtures, but tur walls, door frames, doors &amp; carpet are in terrible shape so it almost seems like a waste?  The walls are the thinnest that I have ever experienced... We heard every movement and voice in the hallway as well as every step taken in the room above us. The desk clerk was incredibly nice and accommodating. He went out of his way to make sure we were set up well. More</t>
   </si>
   <si>
+    <t>Martin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r125368996-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1330,6 +1483,9 @@
   </si>
   <si>
     <t>February 2012</t>
+  </si>
+  <si>
+    <t>Khatri4u</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109474-r124279750-Holiday_Inn_Express_Hotel_Suites_Dallas_Park_Central_Northeast-Dallas_Texas.html</t>
@@ -1864,43 +2020,47 @@
       <c r="A2" t="n">
         <v>36514</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155268</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1912,56 +2072,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36514</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155269</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1973,47 +2137,51 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36514</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>50858</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -2030,56 +2198,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36514</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>29983</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2095,56 +2267,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36514</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2162,56 +2338,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36514</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155271</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2225,50 +2405,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36514</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155272</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2286,50 +2470,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36514</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155273</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2347,50 +2535,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36514</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155274</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2404,50 +2596,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36514</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>31401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2461,50 +2657,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36514</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>28543</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2518,50 +2718,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36514</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>38567</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2575,50 +2779,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36514</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155275</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2638,50 +2846,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36514</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>87458</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2699,50 +2911,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36514</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155276</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2760,56 +2976,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36514</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155277</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2827,50 +3047,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36514</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>47077</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2882,56 +3106,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36514</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155278</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2951,50 +3179,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36514</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>15626</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>169</v>
       </c>
-      <c r="J20" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" t="s">
-        <v>171</v>
-      </c>
-      <c r="L20" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>153</v>
-      </c>
       <c r="O20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3008,50 +3240,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36514</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3069,50 +3305,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36514</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>2509</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3130,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -3149,37 +3389,37 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3191,56 +3431,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36514</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155279</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3258,56 +3502,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="X24" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="Y24" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36514</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>8268</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3325,56 +3573,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36514</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155280</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3392,56 +3644,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="X26" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36514</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>10087</v>
+      </c>
+      <c r="C27" t="s">
+        <v>247</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3459,56 +3715,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="X27" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36514</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155281</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3530,56 +3790,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="X28" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36514</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155282</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3601,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
@@ -3620,22 +3884,22 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3651,51 +3915,52 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36514</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155283</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3707,56 +3972,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="X31" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="Y31" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36514</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>507</v>
+      </c>
+      <c r="C32" t="s">
+        <v>289</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="J32" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3778,56 +4047,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="X32" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="Y32" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36514</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>28363</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="O33" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3849,56 +4122,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="X33" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="Y33" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36514</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155284</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3920,56 +4197,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="X34" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36514</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155285</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3991,47 +4272,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="X35" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="Y35" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36514</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155286</v>
+      </c>
+      <c r="C36" t="s">
+        <v>325</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="J36" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4058,56 +4343,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="X36" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="Y36" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36514</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>2409</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4129,56 +4418,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="X37" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="Y37" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36514</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>9733</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4200,56 +4493,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="X38" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="Y38" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36514</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>17056</v>
+      </c>
+      <c r="C39" t="s">
+        <v>349</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="J39" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4271,56 +4568,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="X39" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36514</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155287</v>
+      </c>
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="K40" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4342,56 +4643,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="X40" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="Y40" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36514</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155288</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4413,56 +4718,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="X41" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="Y41" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36514</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155289</v>
+      </c>
+      <c r="C42" t="s">
+        <v>374</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="J42" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="K42" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="O42" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -4484,56 +4793,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="X42" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="Y42" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36514</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155290</v>
+      </c>
+      <c r="C43" t="s">
+        <v>384</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4555,56 +4868,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="X43" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="Y43" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36514</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155291</v>
+      </c>
+      <c r="C44" t="s">
+        <v>393</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="K44" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4626,56 +4943,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="X44" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="Y44" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36514</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155292</v>
+      </c>
+      <c r="C45" t="s">
+        <v>403</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="J45" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="K45" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="L45" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4697,56 +5018,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="X45" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="Y45" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36514</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155293</v>
+      </c>
+      <c r="C46" t="s">
+        <v>412</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="J46" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="K46" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="L46" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="O46" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4768,47 +5093,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="X46" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="Y46" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36514</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155294</v>
+      </c>
+      <c r="C47" t="s">
+        <v>421</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="J47" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="K47" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -4835,56 +5164,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="X47" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="Y47" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36514</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155295</v>
+      </c>
+      <c r="C48" t="s">
+        <v>429</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="K48" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -4906,56 +5239,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="X48" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="Y48" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36514</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155296</v>
+      </c>
+      <c r="C49" t="s">
+        <v>439</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="J49" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="K49" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -4977,56 +5314,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="X49" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="Y49" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36514</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155297</v>
+      </c>
+      <c r="C50" t="s">
+        <v>448</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="J50" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="K50" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="O50" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5048,56 +5389,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="X50" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="Y50" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36514</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155298</v>
+      </c>
+      <c r="C51" t="s">
+        <v>458</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="J51" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="K51" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="L51" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="O51" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5119,56 +5464,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="X51" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="Y51" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36514</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155299</v>
+      </c>
+      <c r="C52" t="s">
+        <v>466</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="J52" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="K52" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="L52" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="O52" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5192,41 +5541,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36514</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C53" t="s">
+        <v>473</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="J53" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="K53" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="L53" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
@@ -5253,56 +5606,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="X53" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="Y53" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36514</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>25099</v>
+      </c>
+      <c r="C54" t="s">
+        <v>482</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="J54" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="K54" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="L54" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="O54" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5326,41 +5683,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36514</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>155301</v>
+      </c>
+      <c r="C55" t="s">
+        <v>489</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="J55" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="K55" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L55" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
@@ -5389,7 +5750,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56">
@@ -5402,28 +5763,28 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="J56" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="K56" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="L56" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
@@ -5452,7 +5813,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
